--- a/Intermodal Transport/Assignment/li0037-CU70106-flower pot.xlsx
+++ b/Intermodal Transport/Assignment/li0037-CU70106-flower pot.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Desktop/校内/HZ/HZ-logistics/Intermodal Transport/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a+b+c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q-d (€/pot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q-f: Since the 'given requirement of the customer' isn't given in text, the following answer will be calculated under the situation of 'the total allowed maximum load for a wooden pallet'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q-f-1 (€/pot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +137,38 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-f: Since the 'given requirement of the customer' isn't given in text, I will calculate answers of several versions below.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Put 4 in 1, only consider the volumn, regardless of weight limitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Put 4 in 1, within the maximum load of 1500kg per pallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. within the maximun load of 1500kg per pallet, to reach the maximum of ttl value (by Matlab)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. within the maximun load of 1500kg per pallet, to reach the maximum of ttl pot numver (by Matlab)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d: 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e: 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also, the transportation amount isn't given, so I can't decide which situation to apply. The number of pallets used cannot be calculated.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,14 +240,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -842,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:E37"/>
+  <dimension ref="A11:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,9 +955,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -945,9 +969,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0.25</v>
@@ -959,205 +983,359 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f>ROUNDDOWN($B$12/B14,0)^3</f>
         <v>64</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f>B23*C14/$B$12</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f>ROUNDDOWN($B$12/B15,0)^3</f>
         <v>125</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f>B24*C15/$B$12</f>
         <v>1875</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f>ROUNDDOWN($B$12/B16,0)^3</f>
         <v>216</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f>B25*C16/$B$12</f>
         <v>2160</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="4">
         <f>3*B23</f>
         <v>192</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f>SUM(C14:C16)*B23/B12</f>
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>C12/B23</f>
         <v>0.78125</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>C12/(D14*B23)</f>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>D14*B23</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="5">
+        <f>C12/(25*3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C12/1500</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D14:D16)*B23</f>
+        <v>3840</v>
+      </c>
+      <c r="E31">
+        <f>1500/D31*64</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="6">
-        <f>C12/B27</f>
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="C31" s="6">
-        <f>C12/(SUM(D14:D16)*B23)</f>
-        <v>1.3020833333333334E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <f>C12/(5*(ROUNDDOWN($B$12/B18,0)^3))</f>
         <v>0.15625</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f>5*(ROUNDDOWN($B$12/B18,0)^3)</f>
         <v>320</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f>SUM(C14:C18)*(ROUNDDOWN($B$12/$B$18,0)^3)</f>
         <v>5440</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f>SUM(D14:D18)*(ROUNDDOWN($B$12/$B$18,0)^3)</f>
         <v>6400</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="5">
+        <f>C12/C40</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C40" s="4">
+        <f>C37*E40/E37</f>
+        <v>75</v>
+      </c>
+      <c r="D40" s="4">
+        <f>D37*E40/E37</f>
+        <v>1275</v>
+      </c>
+      <c r="E40" s="4">
+        <f>1500</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5">
+        <f>C12/50</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <f>C18*50</f>
+        <v>1500</v>
+      </c>
+      <c r="E43" s="4">
+        <f>D18*50</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="5">
+        <f>C12/150</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C46" s="4">
+        <v>150</v>
+      </c>
+      <c r="D46" s="4">
+        <f>C17*150</f>
+        <v>750</v>
+      </c>
+      <c r="E46" s="4">
+        <f>D17*150</f>
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A13:D13"/>
-  <mergeCells count="1">
-    <mergeCell ref="B32:E35"/>
+  <autoFilter ref="A13:D13">
+    <sortState ref="A14:D18">
+      <sortCondition ref="A13:A18"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F32:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
